--- a/new kartochki/ТРБТ.xlsx
+++ b/new kartochki/ТРБТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH187"/>
+  <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3415,9 +3415,7 @@
           <t xml:space="preserve">        KRONO - туалет закрытый кошачий (52x39x39h) без дверки.</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>8022967021562</t>
@@ -3607,9 +3605,7 @@
           <t xml:space="preserve">        PIXI - туалет закрытый кошачий (52x39x39h)</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>5</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>8022967010535</t>
@@ -6460,19 +6456,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
+          <t xml:space="preserve">            LARA полнорационный сухой корм для кошек, лосось, 2кг.</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4811178000107</t>
+          <t>5410340410738</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9.699999999999999</v>
+        <v>23.46</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -6508,19 +6504,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
+          <t xml:space="preserve">            LARA полнорационный сухой корм для кошек, ягненок, 2кг</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4811178001043</t>
+          <t>5410340409978</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>114</v>
+        <v>23.46</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -6556,19 +6552,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
+          <t xml:space="preserve">            LARA полнорационный сухой корм для кошек, индейка и курица, 2кг.</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>386</v>
+        <v>180</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4811178000077</t>
+          <t>5410340410691</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9.9</v>
+        <v>23.46</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -6604,19 +6600,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
+          <t xml:space="preserve">            LARA полнорационный сухой корм для кошек, говядина, 2кг.</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4811178000084</t>
+          <t>5410340410714</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>10</v>
+        <v>23.46</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -6652,19 +6648,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 3,8л</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4811178000121</t>
+          <t>4811178000107</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>19.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -6700,19 +6696,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" "Звездный песок", 20кг</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>259</v>
+        <v>5</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4811178000138</t>
+          <t>4811178001043</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>19.9</v>
+        <v>114</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -6748,17 +6744,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом яблока, 7,6л</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 3,8л</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>386</v>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4811178000435</t>
+          <t>4811178000077</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>19.9</v>
+        <v>9.9</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -6794,19 +6792,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 3,8л</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4811178000343</t>
+          <t>4811178000084</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -6842,19 +6840,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 7,6л</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4811178000350</t>
+          <t>4811178000121</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>27.3</v>
+        <v>19.7</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
@@ -6890,19 +6888,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 20кг</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 7,6л</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4811178001012</t>
+          <t>4811178000138</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>117</v>
+        <v>19.9</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
@@ -6938,19 +6936,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>5</v>
-      </c>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом яблока, 7,6л</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4811178001029</t>
+          <t>4811178000435</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>118</v>
+        <v>19.9</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
@@ -6986,19 +6982,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый, 11,4л</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4811178000336</t>
+          <t>4811178000343</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9.050000000000001</v>
+        <v>27</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
@@ -7034,19 +7030,19 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" силикагелевый с лавандой, 11,4л</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4811178000428</t>
+          <t>4811178000350</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>27.3</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
@@ -7082,19 +7078,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка", 20кг</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4811178000497</t>
+          <t>4811178001012</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>18.94</v>
+        <v>117</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
@@ -7130,19 +7126,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
+          <t xml:space="preserve">            Наполнитель силикагелевый "Кошкина Полянка" с ароматом лаванды, 20кг</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4811178000503</t>
+          <t>4811178001029</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>10.38</v>
+        <v>118</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
@@ -7178,19 +7174,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "СИЛИКАМИКС" впитывающий 5л.</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4811178000480</t>
+          <t>4811178000336</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>11.52</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
@@ -7226,19 +7222,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 6л</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4811178000145</t>
+          <t>4811178000428</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4.48</v>
+        <v>10</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -7274,19 +7270,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" "Silicamix Сила кислорода" впитывающий, 12л</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>352</v>
+        <v>188</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4811178000060</t>
+          <t>4811178000497</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5.15</v>
+        <v>18.94</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
@@ -7322,19 +7318,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка""Silicamix Сила кислорода"Лаванда впитывающий, 6л</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4811178000039</t>
+          <t>4811178000503</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7.28</v>
+        <v>10.38</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -7370,19 +7366,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
+          <t xml:space="preserve">            Наполнитель д/кош.туалета"Кошкина Полянка" BENT-O2-SIL"с силикагелем и активн.кислородом,комкующ.,5л</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4811178000329</t>
+          <t>4811178000480</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3.35</v>
+        <v>11.52</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
@@ -7418,19 +7414,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
+          <t xml:space="preserve">            Наполнитель впитывающий "Кошкина Полянка" (цеолит), 5л.</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4811178000152</t>
+          <t>4811178000145</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3.3</v>
+        <v>4.48</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
@@ -7466,19 +7462,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 3кг</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4811178000541</t>
+          <t>4811178000060</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4.2</v>
+        <v>5.15</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
@@ -7514,19 +7510,19 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
+          <t xml:space="preserve">            Наполнитель комкующийся бентонитовый "Кошкина Полянка", 5кг</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4811178000411</t>
+          <t>4811178000039</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5.8</v>
+        <v>7.28</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
@@ -7562,19 +7558,19 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
+          <t xml:space="preserve">            Наполнитель Кошкина Полянка "ЛЯНОК" впитывающий, 5л.</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4811178000268</t>
+          <t>4811178000329</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>7.4</v>
+        <v>3.35</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
@@ -7610,17 +7606,19 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 5л (3кг)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>345</v>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4811178000275</t>
+          <t>4811178000152</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>10.9</v>
+        <v>3.3</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
@@ -7656,19 +7654,19 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
+          <t xml:space="preserve">            Наполнитель для кошачьего туалета "Кошкина Полянка" древесный, 10л (5кг)</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4811178000473</t>
+          <t>4811178000541</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>8.42</v>
+        <v>4.2</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
@@ -7704,19 +7702,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 12л (6кг)</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4811178000527</t>
+          <t>4811178000411</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4.74</v>
+        <v>5.8</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -7752,19 +7750,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
+          <t xml:space="preserve">            Наполнитель древесный эконом "Кошкина Полянка", 10кг</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4811178000534</t>
+          <t>4811178000268</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4.74</v>
+        <v>7.4</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
@@ -7800,19 +7798,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>45</v>
-      </c>
+          <t xml:space="preserve">            Наполнитель древесный "Кошкина Полянка", 15кг</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>6951135203993</t>
+          <t>4811178000275</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>54.96</v>
+        <v>10.9</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
@@ -7848,19 +7844,19 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
+          <t xml:space="preserve">            Устранитель запаха (дезодоратор) CAT'S GLADE Кошкина Полянка, 750мл</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6951135204006</t>
+          <t>4811178000473</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>57.84</v>
+        <v>8.42</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -7896,19 +7892,19 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. лаванды, 0,5 л</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6951135204013</t>
+          <t>4811178000527</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>61.48</v>
+        <v>4.74</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
@@ -7944,19 +7940,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
+          <t xml:space="preserve">            Устранитель запаха Кошкина Полянка "Cat's Glade Oxymix" добавка в кош.наполн. с аром. ромашки, 0,5 л</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>6951135204020</t>
+          <t>4811178000534</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>64.75</v>
+        <v>4.74</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
@@ -7992,19 +7988,19 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
+          <t xml:space="preserve">            HAPPY LIFE полнорационный сухой корм для взрослых собак ягненок, 3 кг.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>6951135203412</t>
+          <t>5410340311004</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>28.72</v>
+        <v>28.37</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
@@ -8040,19 +8036,19 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
+          <t xml:space="preserve">            HAPPY LIFE полнорационный сухой корм для взрослых собак лосось 3 кг.</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>6951135203290</t>
+          <t>5410340310878</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>28.72</v>
+        <v>28.37</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -8088,19 +8084,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
+          <t xml:space="preserve">            HAPPY LIFE полнорационный сухой корм для щенков,курица 3 кг.</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>6951135203306</t>
+          <t>5410340310397</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>28.72</v>
+        <v>33.36</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -8136,19 +8132,19 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
+          <t xml:space="preserve">            HAPPY LIFE полнорационный сухой корм для взрослых собак говядина 3 кг.</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>6951135203429</t>
+          <t>5410340311035</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>34.44</v>
+        <v>28.37</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
@@ -8184,19 +8180,19 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE S, белый</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>6951135203313</t>
+          <t>6951135203993</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>34.44</v>
+        <v>54.96</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
@@ -8232,19 +8228,19 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE  M, белый</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>6951135203337</t>
+          <t>6951135204006</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>39.41</v>
+        <v>57.84</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
@@ -8280,19 +8276,19 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом  FIDA AUTOBRAKE L, белый</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>6951135203344</t>
+          <t>6951135204013</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>39.41</v>
+        <v>61.48</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
@@ -8328,19 +8324,19 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак с автостопом FIDA AUTOBRAKE XL, белый</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>6951135203436</t>
+          <t>6951135204020</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>39.41</v>
+        <v>64.75</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -8376,19 +8372,19 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., белая</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>6951135202408</t>
+          <t>6951135203412</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46.68</v>
+        <v>28.72</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
@@ -8424,19 +8420,19 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., красная</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>6951135203351</t>
+          <t>6951135203290</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>46.68</v>
+        <v>28.72</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -8472,7 +8468,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Marsmini XS лента 3 м., синяя</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -8480,11 +8476,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>6951135203368</t>
+          <t>6951135203306</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>46.68</v>
+        <v>28.72</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -8520,19 +8516,19 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., коричневая</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>6951135202552</t>
+          <t>6951135203429</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>22.18</v>
+        <v>34.44</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
@@ -8568,19 +8564,19 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars S лента 5 м., красная</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>6951135202545</t>
+          <t>6951135203313</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>22.18</v>
+        <v>34.44</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -8616,19 +8612,19 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., красная</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>6951135202538</t>
+          <t>6951135203337</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>22.18</v>
+        <v>39.41</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -8664,19 +8660,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars M лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>6951135202590</t>
+          <t>6951135203344</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>27.25</v>
+        <v>39.41</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -8712,19 +8708,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars М лента 5 м., белая</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>6951135202583</t>
+          <t>6951135203436</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>27.25</v>
+        <v>39.41</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -8760,19 +8756,19 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., белый</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6951135202576</t>
+          <t>6951135202408</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>27.25</v>
+        <v>46.68</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
@@ -8808,19 +8804,19 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., красная</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>6951135202637</t>
+          <t>6951135203351</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>32.23</v>
+        <v>46.68</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -8856,19 +8852,19 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Mars L лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6951135202620</t>
+          <t>6951135203368</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>32.23</v>
+        <v>46.68</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
@@ -8904,19 +8900,19 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., красная</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>6951135202613</t>
+          <t>6951135202552</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>32.23</v>
+        <v>22.18</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -8952,19 +8948,19 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINI XS лента 3 м., синяя</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>6951135202675</t>
+          <t>6951135202545</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>41.53</v>
+        <v>22.18</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
@@ -9000,19 +8996,19 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA StyleashMINIA XS лента 3 м., черная</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6951135202668</t>
+          <t>6951135202538</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>41.53</v>
+        <v>22.18</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -9048,17 +9044,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., черная</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr"/>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>52</v>
+      </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>6951135202651</t>
+          <t>6951135202590</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>41.53</v>
+        <v>27.25</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -9094,19 +9092,19 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4811178000657</t>
+          <t>6951135202583</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>17.48</v>
+        <v>27.25</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -9142,19 +9140,19 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash S лента 5 м., черная</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6951135203931</t>
+          <t>6951135202576</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>7.08</v>
+        <v>27.25</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
@@ -9190,19 +9188,19 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., красная</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6951135200008</t>
+          <t>6951135202637</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3.11</v>
+        <v>32.23</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -9238,16 +9236,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">            CANARIES PRESTIGE полнорационный сухой корм для канареек (Промо).1+0,2кг</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., синяя</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>46</v>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5410340219096</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>6951135202620</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>32.23</v>
+      </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
@@ -9282,19 +9284,19 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash M лента 5 м., черная</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4811178000282</t>
+          <t>6951135202613</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2.69</v>
+        <v>32.23</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -9330,17 +9332,19 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., красная</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>37</v>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4811178000251</t>
+          <t>6951135202675</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2.69</v>
+        <v>41.53</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -9376,19 +9380,19 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., синяя</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4811178000404</t>
+          <t>6951135202668</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2.27</v>
+        <v>41.53</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
@@ -9424,19 +9428,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>39</v>
-      </c>
+          <t xml:space="preserve">            Поводок-рулетка для собак FIDA Styleash L лента 5 м., черная</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>5410340230794</t>
+          <t>6951135202651</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>28.1</v>
+        <v>41.53</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -9469,6 +9471,386 @@
       <c r="AG187" t="inlineStr"/>
       <c r="AH187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Скользящий поводок (удавка) 170 -1,3 серый</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>42</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4811178000657</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Сменный блок мешков для мусора, желтый</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>66</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>6951135203931</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Дозатор мешков для мусора, белый</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>119</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>6951135200008</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            CANARIES PRESTIGE полнорационный сухой корм для канареек (Промо).1+0,2кг</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5410340219096</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Сено луговое ПОЛЯНКА ПРЕМИУМ пакет, 14л</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>100</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4811178000282</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Стружка древесная ПОЛЯНКА ПРЕМИУМ, 19л</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>100</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4811178000251</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Наполнитель для клеток грызунов и мелких домашних животных ПОЛЯНКА ПРЕМИУМ "ЛЯНОК" впитывающий, 3л.</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>144</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4811178000404</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            EXTREME COMPACT наполнитель комкующийся для кошачьих туалетов, 7,5л.</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>39</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5410340230794</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new kartochki/ТРБТ.xlsx
+++ b/new kartochki/ТРБТ.xlsx
@@ -2563,9 +2563,6 @@
       <c r="A69" t="s">
         <v>101</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
       <c r="C69" t="s">
         <v>283</v>
       </c>
@@ -2588,9 +2585,6 @@
       <c r="A71" t="s">
         <v>103</v>
       </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
       <c r="C71" t="s">
         <v>285</v>
       </c>
@@ -3032,9 +3026,6 @@
       <c r="A104" t="s">
         <v>136</v>
       </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
       <c r="C104" t="s">
         <v>318</v>
       </c>
@@ -3107,9 +3098,6 @@
       <c r="A110" t="s">
         <v>142</v>
       </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
       <c r="C110" t="s">
         <v>324</v>
       </c>
@@ -3121,9 +3109,6 @@
       <c r="A111" t="s">
         <v>143</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
       <c r="C111" t="s">
         <v>325</v>
       </c>
@@ -3135,9 +3120,6 @@
       <c r="A112" t="s">
         <v>144</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
       <c r="C112" t="s">
         <v>326</v>
       </c>
@@ -3202,9 +3184,6 @@
       <c r="A117" t="s">
         <v>149</v>
       </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
       <c r="C117" t="s">
         <v>331</v>
       </c>
@@ -3217,7 +3196,7 @@
         <v>150</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>332</v>
@@ -3322,9 +3301,6 @@
       <c r="A126" t="s">
         <v>158</v>
       </c>
-      <c r="B126">
-        <v>100</v>
-      </c>
       <c r="C126" t="s">
         <v>340</v>
       </c>
@@ -3420,9 +3396,6 @@
       <c r="A133" t="s">
         <v>165</v>
       </c>
-      <c r="B133">
-        <v>5</v>
-      </c>
       <c r="C133" t="s">
         <v>347</v>
       </c>
@@ -3726,7 +3699,7 @@
         <v>187</v>
       </c>
       <c r="B155">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
         <v>369</v>
@@ -3740,7 +3713,7 @@
         <v>188</v>
       </c>
       <c r="B156">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
         <v>370</v>
@@ -3754,7 +3727,7 @@
         <v>189</v>
       </c>
       <c r="B157">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
         <v>371</v>
@@ -3880,7 +3853,7 @@
         <v>198</v>
       </c>
       <c r="B166">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
         <v>380</v>
@@ -3894,7 +3867,7 @@
         <v>199</v>
       </c>
       <c r="B167">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>381</v>
@@ -3907,9 +3880,6 @@
       <c r="A168" t="s">
         <v>200</v>
       </c>
-      <c r="B168">
-        <v>5</v>
-      </c>
       <c r="C168" t="s">
         <v>382</v>
       </c>
@@ -3949,9 +3919,6 @@
       <c r="A171" t="s">
         <v>203</v>
       </c>
-      <c r="B171">
-        <v>18</v>
-      </c>
       <c r="C171" t="s">
         <v>385</v>
       </c>
@@ -3964,7 +3931,7 @@
         <v>204</v>
       </c>
       <c r="B172">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C172" t="s">
         <v>386</v>
@@ -3978,7 +3945,7 @@
         <v>205</v>
       </c>
       <c r="B173">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>387</v>
@@ -3992,7 +3959,7 @@
         <v>206</v>
       </c>
       <c r="B174">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
         <v>388</v>
@@ -4020,7 +3987,7 @@
         <v>208</v>
       </c>
       <c r="B176">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>390</v>
@@ -4045,7 +4012,7 @@
         <v>210</v>
       </c>
       <c r="B178">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C178" t="s">
         <v>392</v>
@@ -4059,7 +4026,7 @@
         <v>211</v>
       </c>
       <c r="B179">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
         <v>393</v>
@@ -4073,7 +4040,7 @@
         <v>212</v>
       </c>
       <c r="B180">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C180" t="s">
         <v>394</v>
@@ -4093,9 +4060,6 @@
     <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>214</v>
-      </c>
-      <c r="B182">
-        <v>100</v>
       </c>
       <c r="C182" t="s">
         <v>396</v>
